--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>2.316462327490609</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>4.060401000000002</v>
+        <v>-12.90434384910116</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>0.573838264542692</v>
+        <v>9.162319139560072</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>11.00161740362515</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.49817184092531</v>
+        <v>4.440675708811326</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>1.609625625599986</v>
+        <v>0.02592873473603596</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>4.570969650847134</v>
+        <v>6.166830030198267</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>3.238605209600021</v>
+        <v>5.009734572843771</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>4.302678588068853</v>
+        <v>2.204591531842581</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>2.421686529599998</v>
+        <v>-4.726949348040732</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>1.132041294372965</v>
+        <v>1.09689030557385</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.80775480839499</v>
+        <v>-4.442195584720931</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>3.822017844547454</v>
+        <v>1.600060471414833</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>4.03368232667769</v>
+        <v>-2.949819494134909</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>2.967306691379146</v>
+        <v>1.651055586686678</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.814234591457176</v>
+        <v>2.833734372666652</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.306868092497383</v>
+        <v>1.99440460461342</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.422137564860316</v>
+        <v>0.9898525518331924</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.54711212449874</v>
+        <v>2.613530175870626</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.625448224354798</v>
+        <v>3.313641510414356</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>3.247997668789648</v>
+        <v>3.696331036365752</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>3.659175913415735</v>
+        <v>6.233648892987009</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>2.846663510492387</v>
+        <v>-0.973865931199458</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.209738691971808</v>
+        <v>-4.327930935899992</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.638125075374576</v>
+        <v>1.725130460355095</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.830905105114589</v>
+        <v>-1.194610791900008</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>2.134211868526203</v>
+        <v>-0.5115004854862049</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.831720744488786</v>
+        <v>2.23509962177757</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>4.965791828584987</v>
+        <v>0.9727820482463123</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>3.779837101901995</v>
+        <v>2.866869504079239</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>2.759733428815392</v>
+        <v>2.122313752051319</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.9619141332750658</v>
+        <v>0.8382457967197388</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>1.554683554468195</v>
+        <v>-0.1133034947815914</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.283368189749212</v>
+        <v>0.8323378752418176</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>2.010045985681796</v>
+        <v>3.161594928268019</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>2.221738879811253</v>
+        <v>2.57979941834241</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.5115004854862049</v>
+        <v>-2.22169520243084</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.23509962177757</v>
+        <v>-6.324519326136446</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>0.9727820482463123</v>
+        <v>-1.290816600413758</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.866869504079239</v>
+        <v>-8.277043919141548</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>2.122313752051319</v>
+        <v>2.066568225344967</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.8382457967197388</v>
+        <v>0.5638104621660478</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.1133034947815914</v>
+        <v>-1.187784794999047</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.8323378752418176</v>
+        <v>-4.510558235413276</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>3.161594928268019</v>
+        <v>4.306165070258094</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>2.57979941834241</v>
+        <v>8.305446157974039</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>2.316462327490609</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>-12.90434384910116</v>
+        <v>-12.90434384910118</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -457,7 +454,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>4.440675708811326</v>
+        <v>4.440675708811348</v>
       </c>
       <c r="D4">
         <v>2011</v>
@@ -497,7 +494,7 @@
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>-4.726949348040732</v>
+        <v>-4.72694934804071</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -514,7 +511,7 @@
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>-4.442195584720931</v>
+        <v>-4.442195584720943</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.600060471414833</v>
+        <v>1.600060471414855</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>-2.949819494134909</v>
+        <v>-2.94981949413492</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -548,7 +545,7 @@
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>2.833734372666652</v>
+        <v>2.83373437266663</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -565,7 +562,7 @@
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>0.9898525518331924</v>
+        <v>0.9898525518332146</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,7 +573,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.613530175870626</v>
+        <v>2.613530175870649</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -599,7 +596,7 @@
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>6.233648892987009</v>
+        <v>6.233648892986987</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,7 +607,7 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.973865931199458</v>
+        <v>-0.9738659311994247</v>
       </c>
       <c r="D13">
         <v>2020</v>
@@ -627,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>1.725130460355095</v>
+        <v>1.725130460355073</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-1.194610791900008</v>
+        <v>-1.194610791899997</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-2.22169520243084</v>
+        <v>-2.221695202430862</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-6.324519326136446</v>
+        <v>-6.324519326136457</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.290816600413758</v>
+        <v>-1.290816600413769</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-8.277043919141548</v>
+        <v>-8.277043919141525</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,7 +675,7 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>2.066568225344967</v>
+        <v>2.066568225344989</v>
       </c>
       <c r="D17">
         <v>2024</v>
@@ -695,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-1.187784794999047</v>
+        <v>-1.187784794999081</v>
       </c>
       <c r="D18">
         <v>2025</v>
@@ -718,7 +715,7 @@
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>8.305446157974039</v>
+        <v>8.305446157974018</v>
       </c>
     </row>
   </sheetData>
